--- a/frontend/public/교사정보_업로드_양식.xlsx
+++ b/frontend/public/교사정보_업로드_양식.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="안내" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="교사 정보" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="교사정보" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,8 +31,13 @@
       <sz val="11"/>
     </font>
     <font>
+      <color rgb="00666666"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <b val="1"/>
-      <sz val="14"/>
+      <color rgb="00FF0000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -45,12 +49,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,18 +62,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,245 +460,151 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>교사 정보 업로드 안내</t>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>성별</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>총 경력(발령 연도)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>본교 근무 시작 연도</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>올해 학년</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>올해 학급</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>올해 담임 여부</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>교과전담 여부</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>업무부장</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>교과명</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>특수 조건</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>본교 담임 이력</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>가람반</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>예</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>아니오</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2020:1,2021:2,2022:3</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>※ 안내: 본교 담임 이력은 '연도:학년,연도:학년' 형식으로 입력하세요. 예) 2023:1,2024:2,2025:3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1. 필수 항목: 이름</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2. 올해 담임 여부: 예/아니오, true/false, 1/0, O/X 등</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3. 교과전담 여부: 예/아니오, true/false, 1/0, O/X 등</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4. 올해 학년: 1~6 숫자</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5. 올해 학급: 가람반, 나리반 등 한글 입력 가능</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6. 업무부장: 업무부장: 학생생활지도 형식으로 입력</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>7. 이름이 같으면 기존 교사 정보가 업데이트됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>※ 예시 데이터는 삭제하고 실제 데이터를 입력하세요.</t>
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>※ 필수 항목: 이름</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>총 경력(발령 연도)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>본교 근무 시작 연도</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>올해 학년</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>올해 학급</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>올해 담임 여부</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>교과전담 여부</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>업무부장</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>특수 조건</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>홍길동</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>가람반</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>예</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>아니오</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>김영희</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>여</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>나리반</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>아니오</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>예</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>업무부장: 학생생활지도</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>